--- a/exel_test.xlsx
+++ b/exel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muroi\Documents\practice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330030C-A0B1-47D8-8C64-28374E95C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972291D-0FC9-498D-870D-F782195E5169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="1630" windowWidth="18220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>エクセルファイルのソースツリーテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2"/>
+  <dimension ref="C2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -366,6 +373,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exel_test.xlsx
+++ b/exel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muroi\Documents\practice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972291D-0FC9-498D-870D-F782195E5169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330030C-A0B1-47D8-8C64-28374E95C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="1630" windowWidth="18220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>エクセルファイルのソースツリーテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -360,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:C4"/>
+  <dimension ref="C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -373,11 +366,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
